--- a/Reader/VOORBEELDEN/leeg interview.xlsx
+++ b/Reader/VOORBEELDEN/leeg interview.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TARIK\Documents\GitHub\WindowsApp\Reader\VOORBEELDEN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="108" windowWidth="11340" windowHeight="7140"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -21,7 +26,7 @@
     <author>Gebruiker</author>
   </authors>
   <commentList>
-    <comment ref="B20" authorId="0">
+    <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0">
+    <comment ref="B34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +276,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -505,31 +510,7 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <condense val="0"/>
@@ -547,6 +528,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -595,7 +579,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -628,9 +612,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,6 +664,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -845,7 +863,7 @@
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1452,7 +1470,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C8:C45">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1492,6 +1510,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1540,15 +1567,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
@@ -1556,13 +1574,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9C8E0B-A753-4A00-B6FB-EAE63B90091A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9871EDB3-C7BC-4ED4-8CCC-2994515CDD0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9871EDB3-C7BC-4ED4-8CCC-2994515CDD0D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9C8E0B-A753-4A00-B6FB-EAE63B90091A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5CC6976-B5F4-4FB3-80E6-5BD840B830B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5CC6976-B5F4-4FB3-80E6-5BD840B830B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>